--- a/biology/Botanique/Square_d'Anvers_-_Jean-Claude-Carrière/Square_d'Anvers_-_Jean-Claude-Carrière.xlsx
+++ b/biology/Botanique/Square_d'Anvers_-_Jean-Claude-Carrière/Square_d'Anvers_-_Jean-Claude-Carrière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_d%27Anvers_-_Jean-Claude-Carri%C3%A8re</t>
+          <t>Square_d'Anvers_-_Jean-Claude-Carrière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square d'Anvers - Jean-Claude-Carrière est un square du 9e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_d%27Anvers_-_Jean-Claude-Carri%C3%A8re</t>
+          <t>Square_d'Anvers_-_Jean-Claude-Carrière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 10 bis, avenue Trudaine.
 Il est desservi par la ligne 2 à la station de métro Anvers.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_d%27Anvers_-_Jean-Claude-Carri%C3%A8re</t>
+          <t>Square_d'Anvers_-_Jean-Claude-Carrière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de la ville belge d'Anvers prise par les Français le 2 décembre 1832 durant la campagne des Dix-Jours de la guerre belgo-néerlandaise. L'autre partie du nom est en hommage à Jean-Claude Carrière, artiste français né en 1931 et mort en 2021. 
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_d%27Anvers_-_Jean-Claude-Carri%C3%A8re</t>
+          <t>Square_d'Anvers_-_Jean-Claude-Carrière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square a été ouvert et aménagé en 1877, sur les terrains des anciens abattoirs de Montmartre. Il a été dessiné par l'architecte Jean-Camille Formigé, sous l'autorité de l'ingénieur Adolphe Alphand. 
-À l'origine, le square comporte deux monuments : une statue de Diderot datant de 1886 et réalisée par Léon Lecointe (1826-1913) et la colonne de la Paix Armée dessinée par l’architecte Paul Sédille et construite par Jules Coutan[1]. Le square contenait également un kiosque à musique dans le style de celui du square Maurice-Gardette, dans le 11e arrondissement, qui, lui, a été conservé. Néanmoins, la statue du philosophe est fondue sous le régime de Vichy.
-La colonne de la Paix Armée et le kiosque à musique ont disparu au moment de la refonte du square, à l'occasion de la construction du parking souterrain qu'il abrite, au cours des années 1970. À cette occasion, les grands platanes qui ornaient le square ont également disparu. Une nouvelle restructuration a eu lieu aux alentours de l'an 2000 afin d'atténuer les ravages dus à la campagne de travaux précédente et un nouveau kiosque à musique a été installé. En raison de son poids, la colonne de la Paix Armée a été transportée au parc Montsouris[1]. Depuis ce temps, l'enceinte du square a annexé la rue d'Anvers qui, longeant le lycée Jacques-Decour, était autrefois une voie empruntée par les automobilistes.
-En décembre 2021, le square d'Anvers devient le square d'Anvers - Jean-Claude-Carrière[2].
+À l'origine, le square comporte deux monuments : une statue de Diderot datant de 1886 et réalisée par Léon Lecointe (1826-1913) et la colonne de la Paix Armée dessinée par l’architecte Paul Sédille et construite par Jules Coutan. Le square contenait également un kiosque à musique dans le style de celui du square Maurice-Gardette, dans le 11e arrondissement, qui, lui, a été conservé. Néanmoins, la statue du philosophe est fondue sous le régime de Vichy.
+La colonne de la Paix Armée et le kiosque à musique ont disparu au moment de la refonte du square, à l'occasion de la construction du parking souterrain qu'il abrite, au cours des années 1970. À cette occasion, les grands platanes qui ornaient le square ont également disparu. Une nouvelle restructuration a eu lieu aux alentours de l'an 2000 afin d'atténuer les ravages dus à la campagne de travaux précédente et un nouveau kiosque à musique a été installé. En raison de son poids, la colonne de la Paix Armée a été transportée au parc Montsouris. Depuis ce temps, l'enceinte du square a annexé la rue d'Anvers qui, longeant le lycée Jacques-Decour, était autrefois une voie empruntée par les automobilistes.
+En décembre 2021, le square d'Anvers devient le square d'Anvers - Jean-Claude-Carrière.
 </t>
         </is>
       </c>
